--- a/biology/Zoologie/Bart_l'ours/Bart_l'ours.xlsx
+++ b/biology/Zoologie/Bart_l'ours/Bart_l'ours.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bart_l%27ours</t>
+          <t>Bart_l'ours</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bart l'ours (en anglais : Bart the Bear) est un ours kodiak, né le 19 janvier 1977 à Baltimore, Maryland, États-Unis, mort le 10 mai 2000 à Park City, Utah, États-Unis. Cet ours a figuré à l'affiche de nombreux films de Hollywood mais surtout à celle de L'Ours de Jean-Jacques Annaud.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bart_l%27ours</t>
+          <t>Bart_l'ours</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bart est né en 1977 et a été acheté à l'âge de trois ans dans un zoo par le dresseur Doug Seus. En dehors de ses nombreuses contributions au cinéma, Bart était l'ambassadeur de l'organisation Vital Ground (en) qui s'occupe d'acheter des terrains pour y héberger des espèces en voie de disparition. Le 10 mai 2000, il meurt d'un cancer.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bart_l%27ours</t>
+          <t>Bart_l'ours</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1980 : Windwalker
 1986 : Le Clan de la caverne des ours (The Clan of the Cave Bear)
